--- a/data/6-performance/combined_data.xlsx
+++ b/data/6-performance/combined_data.xlsx
@@ -208,61 +208,61 @@
     <t>['3. During the next five years, international cooperation with other EU countries regarding antibiotic resistance will be promoted, in order to realise an infrastructure that allows for the joint management of reducing the development and spread of antibiotic resistance.', 'Additionally, there will be a strong focus on research into new antibiotics, new treatments and innovative(medical) technology.', "We support and cooperate in international initiatives designed to develop new business models. An existing example is the project 'DRIVE-AB', which is funded via the European Innovative Medicines Initiative and is also part of the WHO Global Action Plan on antimicrobial resistance."]</t>
   </si>
   <si>
-    <t>The NAP includes strategies to prevent and control infections associated with health care and to strengthen the national surveillance system for antimicrobial resistance.</t>
-  </si>
-  <si>
-    <t>The NAP outlines actions to prevent and control infections in animal production and companion animals.</t>
+    <t>The NAP mentions specific actions in the human health sector, including the prevention and control of infections associated with health care.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions to prevent and control infections in animal production and companion animals.</t>
   </si>
   <si>
     <t>The NAP emphasizes the importance of environmental factors in the emergence and spread of antimicrobial resistance.</t>
   </si>
   <si>
-    <t>The NAP includes strategies to regulate and monitor the use of antimicrobials in agriculture.</t>
-  </si>
-  <si>
-    <t>The NAP mentions the need for annual or biannual operational plans to evaluate the activities proposed.</t>
-  </si>
-  <si>
-    <t>The NAP outlines specific objectives and actions to be implemented within the 2021-2025 timeframe.</t>
-  </si>
-  <si>
-    <t>The document does not specify any budget allocation for the strategies outlined.</t>
-  </si>
-  <si>
-    <t>The NAP establishes a multisectoral committee for AMR coordination involving various ministries.</t>
-  </si>
-  <si>
-    <t>The NAP promotes the incorporation of AMR topics into educational curricula and training programs for health professionals.</t>
-  </si>
-  <si>
-    <t>The NAP includes strategies for public awareness campaigns to inform the community about the responsible use of antimicrobials.</t>
-  </si>
-  <si>
-    <t>The NAP acknowledges collaboration with international organizations such as WHO, FAO, and OIE.</t>
-  </si>
-  <si>
-    <t>The NAP emphasizes the development of an integrated surveillance system for AMR.</t>
-  </si>
-  <si>
-    <t>The NAP includes objectives to strengthen the capacity for detecting and reporting antimicrobial resistance.</t>
-  </si>
-  <si>
-    <t>The NAP outlines strategies for preventing and controlling infections in health care settings.</t>
-  </si>
-  <si>
-    <t>The NAP includes actions to regulate the use of antimicrobials in animal health according to OIE standards.</t>
+    <t>The NAP addresses the regulation of antimicrobial use in agriculture and promotes sustainable practices.</t>
+  </si>
+  <si>
+    <t>The NAP outlines the need for annual or biannual operational plans to evaluate and adjust activities.</t>
+  </si>
+  <si>
+    <t>The NAP sets specific objectives and timelines for various actions related to antimicrobial resistance.</t>
+  </si>
+  <si>
+    <t>The document does not mention specific budget allocations for the strategies outlined.</t>
+  </si>
+  <si>
+    <t>The NAP establishes a multisectoral committee involving various ministries for coordination.</t>
+  </si>
+  <si>
+    <t>The NAP promotes the incorporation of AMR topics into educational curricula and training programs.</t>
+  </si>
+  <si>
+    <t>The NAP includes plans for public awareness campaigns to inform about the responsible use of antimicrobials.</t>
+  </si>
+  <si>
+    <t>The NAP acknowledges collaboration with international organizations like WHO and FAO.</t>
+  </si>
+  <si>
+    <t>The NAP outlines the development of an integrated surveillance system for AMR.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need for capacity building in detecting and reporting AMR.</t>
+  </si>
+  <si>
+    <t>The NAP includes strategies for infection control and hygiene measures to prevent AMR.</t>
+  </si>
+  <si>
+    <t>The NAP refers to the need to align with OIE and FAO standards for antimicrobial use.</t>
   </si>
   <si>
     <t>The NAP includes regulations for the prescription and distribution of antimicrobials.</t>
   </si>
   <si>
-    <t>The NAP aims to strengthen the regulatory framework for the use of antimicrobials.</t>
-  </si>
-  <si>
-    <t>The NAP includes measures to promote the rational use of antibiotics in health care.</t>
-  </si>
-  <si>
-    <t>The NAP encourages participation in international research initiatives related to AMR.</t>
+    <t>The NAP aims to strengthen the regulatory framework for antimicrobial use.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need for regulations to ensure the rational use of antibiotics.</t>
+  </si>
+  <si>
+    <t>The NAP encourages participation in international research collaborations for AMR.</t>
   </si>
   <si>
     <t>The approach to antibiotic resistance addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment.</t>
